--- a/config_6.22/fish_boss_yutu_random_3.xlsx
+++ b/config_6.22/fish_boss_yutu_random_3.xlsx
@@ -215,8 +215,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -243,12 +243,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -264,17 +337,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,45 +352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,29 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -376,16 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,49 +412,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,133 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,8 +624,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,15 +665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +695,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -694,41 +718,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,138 +737,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H13"/>
+      <selection activeCell="H9" sqref="H9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1676,10 +1676,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I9" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
@@ -1701,10 +1701,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I10" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1726,10 +1726,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I11" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1751,10 +1751,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I12" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1776,10 +1776,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I13" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.22/fish_boss_yutu_random_3.xlsx
+++ b/config_6.22/fish_boss_yutu_random_3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>no</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>128,129,130,</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
@@ -215,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -243,6 +246,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -264,27 +324,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,56 +372,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,36 +387,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -412,187 +415,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,30 +627,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -669,6 +648,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -684,22 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,17 +712,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,138 +740,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1495,10 +1498,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1776,9 +1779,34 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
+        <v>1623167999</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1623254399</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
         <v>1624320000</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <v>1624895999</v>
       </c>
     </row>

--- a/config_6.22/fish_boss_yutu_random_3.xlsx
+++ b/config_6.22/fish_boss_yutu_random_3.xlsx
@@ -210,7 +210,7 @@
     <t>128,129,130,</t>
   </si>
   <si>
-    <t>137</t>
+    <t>137,</t>
   </si>
 </sst>
 </file>
@@ -218,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -245,19 +245,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -273,14 +261,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -288,10 +321,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -303,22 +334,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,54 +373,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,37 +415,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,13 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,115 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,9 +626,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,19 +653,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,21 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,22 +716,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,34 +740,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,102 +779,99 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
